--- a/results/[7_low_gas_demand]_#_inv_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3625.606253320109</v>
+        <v>10372.65132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9245.672242045401</v>
+        <v>289260.5393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4857.555427597101</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>20742.651805824</v>
+        <v>161710.6685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>484922.2142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>105953.7713982</v>
       </c>
       <c r="N2" t="n">
-        <v>3265.068099260883</v>
+        <v>70003.73489578845</v>
       </c>
       <c r="O2" t="n">
-        <v>4841.583959004839</v>
+        <v>69744.89343456978</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2717.78920307411</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6051.903283656296</v>
+        <v>31203.23858116339</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25779.12173248233</v>
+        <v>170658.5511254234</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>38660.38994671917</v>
+        <v>209080.6134235085</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63518.11613148725</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>68536.72857011756</v>
       </c>
       <c r="N2" t="n">
-        <v>5547.692587677884</v>
+        <v>19285.19160463996</v>
       </c>
       <c r="O2" t="n">
-        <v>4680.807935426745</v>
+        <v>27033.1386905727</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3540.239342542912</v>
+        <v>27543.1755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>9372.087664937855</v>
+        <v>22113.21643273498</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38771.43301033976</v>
+        <v>114655.4402706629</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>57331.67885944174</v>
+        <v>153866.0861464091</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44638.22942194272</v>
       </c>
       <c r="N2" t="n">
-        <v>10086.86941599635</v>
+        <v>39676.88529639924</v>
       </c>
       <c r="O2" t="n">
-        <v>7669.812218308174</v>
+        <v>31311.04369977792</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1142.580190039942</v>
       </c>
       <c r="O2" t="n">
-        <v>494.1844686420247</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1551.956292866974</v>
+        <v>29588.33508286276</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4347.543515635315</v>
       </c>
       <c r="O2" t="n">
-        <v>408.0947270140496</v>
+        <v>20429.76977394434</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_inv_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_inv_cost.xlsx
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7613.324401604237</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>141123.4088619919</v>
+        <v>297405.7209542279</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>80959.25712661858</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>195811.1646534571</v>
+        <v>142007.2657838</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>201812.3644119102</v>
+        <v>533802.9012525</v>
       </c>
       <c r="M2" t="n">
-        <v>60328.27579548</v>
+        <v>106583.87169815</v>
       </c>
       <c r="N2" t="n">
-        <v>60828.97877438225</v>
+        <v>75545.14729476102</v>
       </c>
       <c r="O2" t="n">
-        <v>36372.04443513531</v>
+        <v>70974.1014704362</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44228.79331325604</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32088.98512992542</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>301008.0349809414</v>
+        <v>174532.7286598571</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118834.0484377558</v>
+        <v>96226.01827323649</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>822715.7536472888</v>
+        <v>224920.9130748752</v>
       </c>
       <c r="M2" t="n">
-        <v>184225.2799983365</v>
+        <v>58508.23124971001</v>
       </c>
       <c r="N2" t="n">
-        <v>124749.2599342919</v>
+        <v>17274.62728995873</v>
       </c>
       <c r="O2" t="n">
-        <v>51592.48617895102</v>
+        <v>12264.56043766227</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40275.98033703693</v>
+        <v>15535.6866473945</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>21697.4750396202</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>582142.2458483797</v>
+        <v>133319.8868932023</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>507939.6867169471</v>
+        <v>177127.1711388644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>774596.523720427</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>437023.5941263738</v>
+        <v>55808.89021025997</v>
       </c>
       <c r="N2" t="n">
-        <v>111748.8426582804</v>
+        <v>43148.97806764329</v>
       </c>
       <c r="O2" t="n">
-        <v>166898.7939482108</v>
+        <v>44476.65803456417</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_inv_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_inv_cost.xlsx
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>297405.7209542279</v>
+        <v>297510.26632348</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661858</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>142007.2657838</v>
+        <v>141423.2226446746</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>533802.9012525</v>
+        <v>530291.5429284</v>
       </c>
       <c r="M2" t="n">
-        <v>106583.87169815</v>
+        <v>107537.4970482998</v>
       </c>
       <c r="N2" t="n">
-        <v>75545.14729476102</v>
+        <v>76111.19325667029</v>
       </c>
       <c r="O2" t="n">
-        <v>70974.1014704362</v>
+        <v>76558.10574605614</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32088.98512992542</v>
+        <v>43441.3718011466</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>174532.7286598571</v>
+        <v>281345.0643485042</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>96226.01827323649</v>
+        <v>147894.1092960591</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>224920.9130748752</v>
+        <v>379693.0072022068</v>
       </c>
       <c r="M2" t="n">
-        <v>58508.23124971001</v>
+        <v>101674.4728423327</v>
       </c>
       <c r="N2" t="n">
-        <v>17274.62728995873</v>
+        <v>31905.74731636832</v>
       </c>
       <c r="O2" t="n">
-        <v>12264.56043766227</v>
+        <v>20014.26124429239</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15535.6866473945</v>
+        <v>16117.98000541006</v>
       </c>
       <c r="B2" t="n">
-        <v>21697.4750396202</v>
+        <v>18369.04498606734</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133319.8868932023</v>
+        <v>133656.4069872469</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>177127.1711388644</v>
+        <v>169325.8996172895</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>55808.89021025997</v>
+        <v>47408.14258329076</v>
       </c>
       <c r="N2" t="n">
-        <v>43148.97806764329</v>
+        <v>50514.27399422055</v>
       </c>
       <c r="O2" t="n">
-        <v>44476.65803456417</v>
+        <v>54458.12153670419</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_inv_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10372.65132737054</v>
+        <v>9739.537847600008</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289260.5393052954</v>
+        <v>289823.7596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161710.6685703679</v>
+        <v>161752.8135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>484922.2142001599</v>
+        <v>485245.29503538</v>
       </c>
       <c r="M2" t="n">
-        <v>105953.7713982</v>
+        <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70003.73489578845</v>
+        <v>70831.955579581</v>
       </c>
       <c r="O2" t="n">
-        <v>69744.89343456978</v>
+        <v>69610.4422391004</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31203.23858116339</v>
+        <v>47386.06393082884</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>170658.5511254234</v>
+        <v>271236.7992183856</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209080.6134235085</v>
+        <v>280426.171173861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63518.11613148725</v>
+        <v>184420.4799505123</v>
       </c>
       <c r="M2" t="n">
-        <v>68536.72857011756</v>
+        <v>113936.92264746</v>
       </c>
       <c r="N2" t="n">
-        <v>19285.19160463996</v>
+        <v>33931.8246116005</v>
       </c>
       <c r="O2" t="n">
-        <v>27033.1386905727</v>
+        <v>50485.47232467777</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27543.1755456332</v>
+        <v>28619.61401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>22113.21643273498</v>
+        <v>23143.29485244409</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114655.4402706629</v>
+        <v>111916.8406725409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>153866.0861464091</v>
+        <v>150385.2728707001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44638.22942194272</v>
+        <v>34803.41203795493</v>
       </c>
       <c r="N2" t="n">
-        <v>39676.88529639924</v>
+        <v>44938.11408779013</v>
       </c>
       <c r="O2" t="n">
-        <v>31311.04369977792</v>
+        <v>26938.31306104351</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1142.580190039942</v>
+        <v>1014.766490779938</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29588.33508286276</v>
+        <v>34409.11717595647</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4347.543515635315</v>
+        <v>5182.698656944208</v>
       </c>
       <c r="O2" t="n">
-        <v>20429.76977394434</v>
+        <v>22972.54525065906</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_inv_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7613.324401604237</v>
+        <v>48474.80344639331</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>484194.3198099986</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>141123.4088619919</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81430.38072974019</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.77928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>195811.1646534571</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>201812.3644119102</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>60328.27579548</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>60828.97877438225</v>
+        <v>23611.99604835475</v>
       </c>
       <c r="O2" t="n">
-        <v>36372.04443513531</v>
+        <v>19940.13531829329</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44228.79331325604</v>
+        <v>61066.22320927228</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1420849.511683786</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>301008.0349809414</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>68609.01482135462</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>48766.68152149498</v>
       </c>
       <c r="I2" t="n">
-        <v>118834.0484377558</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>822715.7536472888</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>184225.2799983365</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>124749.2599342919</v>
+        <v>52438.90435198485</v>
       </c>
       <c r="O2" t="n">
-        <v>51592.48617895102</v>
+        <v>37387.51309567105</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40275.98033703693</v>
+        <v>216769.2966650629</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>886231.6460958978</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>582142.2458483797</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13662.67717712691</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41828.18095705101</v>
       </c>
       <c r="I2" t="n">
-        <v>507939.6867169471</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>774596.523720427</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>437023.5941263738</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>111748.8426582804</v>
+        <v>56269.04156289334</v>
       </c>
       <c r="O2" t="n">
-        <v>166898.7939482108</v>
+        <v>39123.60766563684</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[7_low_gas_demand]_#_inv_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>39063.99109145206</v>
       </c>
       <c r="B2" t="n">
-        <v>3625.606253320109</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>483537.6274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9245.672242045401</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94331.34471502228</v>
       </c>
       <c r="G2" t="n">
-        <v>4857.555427597101</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.77928792104</v>
       </c>
       <c r="I2" t="n">
-        <v>20742.651805824</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3265.068099260883</v>
+        <v>23638.06126801545</v>
       </c>
       <c r="O2" t="n">
-        <v>4841.583959004839</v>
+        <v>19940.13531829346</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2717.78920307411</v>
+        <v>30846.52922536713</v>
       </c>
       <c r="B2" t="n">
-        <v>6051.903283656296</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1495599.874611417</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25779.12173248233</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>70193.79982138964</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>56602.42752520426</v>
       </c>
       <c r="I2" t="n">
-        <v>38660.38994671917</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5547.692587677884</v>
+        <v>51649.16401227913</v>
       </c>
       <c r="O2" t="n">
-        <v>4680.807935426745</v>
+        <v>42574.77934331147</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3540.239342542912</v>
+        <v>242452.4252219552</v>
       </c>
       <c r="B2" t="n">
-        <v>9372.087664937855</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>943335.270081223</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38771.43301033976</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1425.925979620855</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39373.98526588717</v>
       </c>
       <c r="I2" t="n">
-        <v>57331.67885944174</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10086.86941599635</v>
+        <v>53308.16490721726</v>
       </c>
       <c r="O2" t="n">
-        <v>7669.812218308174</v>
+        <v>30023.09380555204</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11578.49752443177</v>
       </c>
       <c r="O2" t="n">
-        <v>494.1844686420247</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1551.956292866974</v>
+        <v>76705.58894163162</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1930.947398408091</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>28147.3462746636</v>
       </c>
       <c r="O2" t="n">
-        <v>408.0947270140496</v>
+        <v>8312.661449003012</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[7_low_gas_demand]_#_inv_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_inv_cost.xlsx
@@ -532,7 +532,7 @@
         <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>81430.38072974019</v>
+        <v>81430.38072974022</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -559,7 +559,7 @@
         <v>23611.99604835475</v>
       </c>
       <c r="O2" t="n">
-        <v>19940.13531829329</v>
+        <v>19940.13531829328</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>68609.01482135462</v>
+        <v>68609.01482135461</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>52438.90435198485</v>
+        <v>52438.90435198482</v>
       </c>
       <c r="O2" t="n">
         <v>37387.51309567105</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41828.18095705101</v>
+        <v>41828.18095704831</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>56269.04156289334</v>
+        <v>56269.04156289335</v>
       </c>
       <c r="O2" t="n">
-        <v>39123.60766563684</v>
+        <v>39123.6076656393</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_inv_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_inv_cost.xlsx
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>297510.26632348</v>
+        <v>297510.2663234787</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>80959.25712662804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>141423.2226446746</v>
+        <v>141423.2226446749</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>107537.4970482998</v>
       </c>
       <c r="N2" t="n">
-        <v>76111.19325667029</v>
+        <v>76111.19325666799</v>
       </c>
       <c r="O2" t="n">
-        <v>76558.10574605614</v>
+        <v>76558.10574605658</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>281345.0643485042</v>
+        <v>281345.0643485061</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>147894.1092960591</v>
+        <v>147894.1092960588</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>379693.0072022068</v>
       </c>
       <c r="M2" t="n">
-        <v>101674.4728423327</v>
+        <v>101674.4728423265</v>
       </c>
       <c r="N2" t="n">
-        <v>31905.74731636832</v>
+        <v>31905.74731636975</v>
       </c>
       <c r="O2" t="n">
-        <v>20014.26124429239</v>
+        <v>20014.26124429272</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16117.98000541006</v>
+        <v>16117.98000540979</v>
       </c>
       <c r="B2" t="n">
-        <v>18369.04498606734</v>
+        <v>18369.04498606281</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133656.4069872469</v>
+        <v>133656.4069872467</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>169325.8996172895</v>
+        <v>169325.8996172894</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>47408.14258329076</v>
+        <v>47408.14258329665</v>
       </c>
       <c r="N2" t="n">
-        <v>50514.27399422055</v>
+        <v>50514.27399422148</v>
       </c>
       <c r="O2" t="n">
-        <v>54458.12153670419</v>
+        <v>54458.1215367035</v>
       </c>
     </row>
   </sheetData>

--- a/results/[7_low_gas_demand]_#_inv_cost.xlsx
+++ b/results/[7_low_gas_demand]_#_inv_cost.xlsx
@@ -556,10 +556,10 @@
         <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70831.955579581</v>
+        <v>70831.95557958097</v>
       </c>
       <c r="O2" t="n">
-        <v>69610.4422391004</v>
+        <v>69610.44223910036</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47386.06393082884</v>
+        <v>47338.61932520662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>280426.171173861</v>
+        <v>283167.7766510943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>184420.4799505123</v>
+        <v>178095.3756971828</v>
       </c>
       <c r="M2" t="n">
-        <v>113936.92264746</v>
+        <v>114008.3253427963</v>
       </c>
       <c r="N2" t="n">
-        <v>33931.8246116005</v>
+        <v>33931.82461160053</v>
       </c>
       <c r="O2" t="n">
-        <v>50485.47232467777</v>
+        <v>50657.26889981552</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28619.61401238371</v>
+        <v>29273.60317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>23143.29485244409</v>
+        <v>22330.72247668595</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>111916.8406725409</v>
+        <v>110739.3594843864</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150385.2728707001</v>
+        <v>150386.9441391908</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34803.41203795493</v>
+        <v>35556.98862372932</v>
       </c>
       <c r="N2" t="n">
-        <v>44938.11408779013</v>
+        <v>44813.41193308897</v>
       </c>
       <c r="O2" t="n">
-        <v>26938.31306104351</v>
+        <v>26775.55841092002</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.766490779938</v>
+        <v>1041.156112142704</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34409.11717595647</v>
+        <v>34256.25291363284</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5182.698656944208</v>
+        <v>5271.89502409355</v>
       </c>
       <c r="O2" t="n">
-        <v>22972.54525065906</v>
+        <v>22972.54525065989</v>
       </c>
     </row>
   </sheetData>
